--- a/source.xlsx
+++ b/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6229499d778e2b12/学习/HKU/Investment Analysis and Portfolio Management/Research Question/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Repos\untitled\HKU_MFIN7002_Research_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{4C29797E-791A-49B8-8800-36F44A09FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6ACFAE0-943A-FE48-BD2F-A3E1A4EA8970}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E360172-9B33-463C-A3CA-23829AAA2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26140" windowHeight="15820" activeTab="4" xr2:uid="{382386D0-A18B-4045-8BEA-4874332A251B}"/>
+    <workbookView xWindow="744" yWindow="1140" windowWidth="20664" windowHeight="14616" activeTab="4" xr2:uid="{382386D0-A18B-4045-8BEA-4874332A251B}"/>
   </bookViews>
   <sheets>
     <sheet name="Return Data" sheetId="2" r:id="rId1"/>
@@ -720,7 +720,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,6 +1348,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,9 +1410,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1476,10 +1476,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1786,34 +1782,34 @@
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="5" width="8.6640625"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="15" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-    </row>
-    <row r="2" spans="1:15" ht="64">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+    </row>
+    <row r="2" spans="1:15" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1858,7 +1854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>37287</v>
       </c>
@@ -1891,7 +1887,7 @@
         <v>-1.1806408582201829E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>37315</v>
       </c>
@@ -1926,7 +1922,7 @@
         <v>6.721491821313208E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>37346</v>
       </c>
@@ -1961,7 +1957,7 @@
         <v>-5.909440235607355E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>37376</v>
       </c>
@@ -1996,7 +1992,7 @@
         <v>2.9595350306103722E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>37407</v>
       </c>
@@ -2031,7 +2027,7 @@
         <v>2.242967753509828E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>37437</v>
       </c>
@@ -2066,7 +2062,7 @@
         <v>3.4816455357620457E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>37468</v>
       </c>
@@ -2101,7 +2097,7 @@
         <v>8.9980140431384914E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>37499</v>
       </c>
@@ -2136,7 +2132,7 @@
         <v>1.6318165702422501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>37529</v>
       </c>
@@ -2171,7 +2167,7 @@
         <v>1.105000227864195E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>37560</v>
       </c>
@@ -2206,7 +2202,7 @@
         <v>-2.8476879837060491E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>37590</v>
       </c>
@@ -2241,7 +2237,7 @@
         <v>2.616201970792043E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>37621</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>4.0532695592430112E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>37652</v>
       </c>
@@ -2313,7 +2309,7 @@
         <v>1.1238005840634059E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>37680</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>1.2932440077596089E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>37711</v>
       </c>
@@ -2387,7 +2383,7 @@
         <v>2.497239223613557E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>37741</v>
       </c>
@@ -2424,7 +2420,7 @@
         <v>1.2827009198210121E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>37772</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>3.5544903132756378E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>37802</v>
       </c>
@@ -2498,7 +2494,7 @@
         <v>-1.0843486307058999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>37833</v>
       </c>
@@ -2535,7 +2531,7 @@
         <v>-2.9136609598729549E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>37864</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>-2.2881505167061671E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>37894</v>
       </c>
@@ -2609,7 +2605,7 @@
         <v>4.8061777576793967E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>37925</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>-5.5776415000354804E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>37955</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>1.3028310245060791E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>37986</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>3.2671360902554618E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>38017</v>
       </c>
@@ -2765,7 +2761,7 @@
         <v>3.7328896444264181E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>38046</v>
       </c>
@@ -2804,7 +2800,7 @@
         <v>5.1522151231468971E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>38077</v>
       </c>
@@ -2843,7 +2839,7 @@
         <v>1.107652395099845E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>38107</v>
       </c>
@@ -2882,7 +2878,7 @@
         <v>-3.656403634352956E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>38138</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>4.9003611723277274E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>38168</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>2.922565977729219E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>38199</v>
       </c>
@@ -2999,7 +2995,7 @@
         <v>-2.074828000888651E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>38230</v>
       </c>
@@ -3038,7 +3034,7 @@
         <v>2.1887266998019909E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>38260</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v>1.181708971834383E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>38291</v>
       </c>
@@ -3116,7 +3112,7 @@
         <v>2.3953957382419459E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>38321</v>
       </c>
@@ -3155,7 +3151,7 @@
         <v>2.6496978688449468E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38352</v>
       </c>
@@ -3194,7 +3190,7 @@
         <v>1.532193350741928E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38383</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>-1.052426385046523E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38411</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>1.9035658999762011E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38442</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>-1.2098136671757079E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38472</v>
       </c>
@@ -3350,7 +3346,7 @@
         <v>1.308672595230909E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38503</v>
       </c>
@@ -3389,7 +3385,7 @@
         <v>-1.3397377359409929E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38533</v>
       </c>
@@ -3428,7 +3424,7 @@
         <v>-4.4845892626027561E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>38564</v>
       </c>
@@ -3467,7 +3463,7 @@
         <v>-8.006846642818255E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>38595</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>1.6459134151590279E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>38625</v>
       </c>
@@ -3545,7 +3541,7 @@
         <v>-1.592027546558461E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>38656</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>-1.4886017188058379E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>38686</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>-7.0979041242693608E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>38717</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>9.8715136837612683E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>38748</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>1.2614297684363731E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>38776</v>
       </c>
@@ -3744,7 +3740,7 @@
         <v>-3.5465658484864489E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>38807</v>
       </c>
@@ -3785,7 +3781,7 @@
         <v>-9.9131723640223379E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>38837</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>1.8928887317047449E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>38868</v>
       </c>
@@ -3867,7 +3863,7 @@
         <v>1.2897983485114841E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>38898</v>
       </c>
@@ -3908,7 +3904,7 @@
         <v>-7.9451695573354852E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>38929</v>
       </c>
@@ -3949,7 +3945,7 @@
         <v>9.9619177322134433E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>38960</v>
       </c>
@@ -3990,7 +3986,7 @@
         <v>1.1555066104359749E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>38990</v>
       </c>
@@ -4031,7 +4027,7 @@
         <v>-7.4683065693026407E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>39021</v>
       </c>
@@ -4072,7 +4068,7 @@
         <v>9.6735856267800013E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>39051</v>
       </c>
@@ -4113,7 +4109,7 @@
         <v>2.435446899414595E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>39082</v>
       </c>
@@ -4154,7 +4150,7 @@
         <v>-1.3256312785288051E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>39113</v>
       </c>
@@ -4195,7 +4191,7 @@
         <v>-9.8284604926325292E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>39141</v>
       </c>
@@ -4236,7 +4232,7 @@
         <v>2.0578465702402401E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>39172</v>
       </c>
@@ -4277,7 +4273,7 @@
         <v>2.3638204866058832E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>39202</v>
       </c>
@@ -4318,7 +4314,7 @@
         <v>1.13027125119447E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>39233</v>
       </c>
@@ -4359,7 +4355,7 @@
         <v>-1.559266039249629E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>39263</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>-4.4349055764421053E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>39294</v>
       </c>
@@ -4441,7 +4437,7 @@
         <v>2.0308132647347099E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>39325</v>
       </c>
@@ -4482,7 +4478,7 @@
         <v>1.231267768155297E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>39355</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>2.2443580979919941E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>39386</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>1.6299287191395399E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>39416</v>
       </c>
@@ -4605,7 +4601,7 @@
         <v>1.911052479912145E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>39447</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>-2.9812829750922591E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>39478</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>2.7778826626435601E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>39507</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>1.67274975589633E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>39538</v>
       </c>
@@ -4769,7 +4765,7 @@
         <v>2.039968566454764E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>39568</v>
       </c>
@@ -4810,7 +4806,7 @@
         <v>-1.90876917976095E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>39599</v>
       </c>
@@ -4851,7 +4847,7 @@
         <v>-1.10576500107098E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>39629</v>
       </c>
@@ -4892,7 +4888,7 @@
         <v>8.517583537215323E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>39660</v>
       </c>
@@ -4933,7 +4929,7 @@
         <v>1.3773233889398111E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>39691</v>
       </c>
@@ -4974,7 +4970,7 @@
         <v>-1.6528350348578798E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>39721</v>
       </c>
@@ -5015,7 +5011,7 @@
         <v>-2.352781095671086E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>39752</v>
       </c>
@@ -5056,7 +5052,7 @@
         <v>-3.686211424561181E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>39782</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>2.8915086290507212E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>39813</v>
       </c>
@@ -5142,7 +5138,7 @@
         <v>6.2130939937454999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>39844</v>
       </c>
@@ -5185,7 +5181,7 @@
         <v>-3.2701175380325243E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>39872</v>
       </c>
@@ -5228,7 +5224,7 @@
         <v>-2.2339857219173309E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>39903</v>
       </c>
@@ -5271,7 +5267,7 @@
         <v>2.3013748583143871E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>39933</v>
       </c>
@@ -5314,7 +5310,7 @@
         <v>8.9954877717373094E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>39964</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>3.5689598600021848E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>39994</v>
       </c>
@@ -5400,7 +5396,7 @@
         <v>4.137049056372577E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>40025</v>
       </c>
@@ -5443,7 +5439,7 @@
         <v>2.2144694975066988E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>40056</v>
       </c>
@@ -5486,7 +5482,7 @@
         <v>1.756576454637138E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>40086</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>2.137056776851232E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>40117</v>
       </c>
@@ -5572,7 +5568,7 @@
         <v>4.6982413831337944E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>40147</v>
       </c>
@@ -5615,7 +5611,7 @@
         <v>2.546366719867876E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>40178</v>
       </c>
@@ -5658,7 +5654,7 @@
         <v>-3.7626846744221787E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>40209</v>
       </c>
@@ -5701,7 +5697,7 @@
         <v>4.1308822450192304E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>40237</v>
       </c>
@@ -5744,7 +5740,7 @@
         <v>7.4427345710548209E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>40268</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>-7.5581717406796312E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>40298</v>
       </c>
@@ -5830,7 +5826,7 @@
         <v>1.6093982852760649E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>40329</v>
       </c>
@@ -5873,7 +5869,7 @@
         <v>-1.563117425877603E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>40359</v>
       </c>
@@ -5916,7 +5912,7 @@
         <v>1.531652507814996E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>40390</v>
       </c>
@@ -5974,7 +5970,7 @@
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>40421</v>
       </c>
@@ -6017,7 +6013,7 @@
         <v>1.391746098783431E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>40451</v>
       </c>
@@ -6060,7 +6056,7 @@
         <v>2.3467549167782931E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>40482</v>
       </c>
@@ -6105,7 +6101,7 @@
         <v>1.255733762972722E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>40512</v>
       </c>
@@ -6150,7 +6146,7 @@
         <v>-3.8066778306476652E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>40543</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>1.3058653730044559E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>40574</v>
       </c>
@@ -6240,7 +6236,7 @@
         <v>1.7997827962523689E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>40602</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>5.8872994581078419E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>40633</v>
       </c>
@@ -6330,7 +6326,7 @@
         <v>4.7096391412388972E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>40663</v>
       </c>
@@ -6377,7 +6373,7 @@
         <v>3.0995329723658701E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>40694</v>
       </c>
@@ -6424,7 +6420,7 @@
         <v>-7.8462186459959948E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>40724</v>
       </c>
@@ -6471,7 +6467,7 @@
         <v>7.5848138648137997E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>40755</v>
       </c>
@@ -6518,7 +6514,7 @@
         <v>2.0641793888848788E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>40786</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>1.271862495351939E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>40816</v>
       </c>
@@ -6612,7 +6608,7 @@
         <v>-2.3107205887413999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>40847</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>1.331102860906253E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>40877</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>-1.7451268054763491E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>40908</v>
       </c>
@@ -6753,7 +6749,7 @@
         <v>6.7433421328839671E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>40939</v>
       </c>
@@ -6800,7 +6796,7 @@
         <v>1.673737583360602E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>40968</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>-6.8014883567724116E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>40999</v>
       </c>
@@ -6894,7 +6890,7 @@
         <v>-7.2007357393220062E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>41029</v>
       </c>
@@ -6941,7 +6937,7 @@
         <v>1.18003507858504E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>41060</v>
       </c>
@@ -6988,7 +6984,7 @@
         <v>-1.026594552290894E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>41090</v>
       </c>
@@ -7035,7 +7031,7 @@
         <v>4.7798759421848747E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>41121</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>1.1568172439173409E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>41152</v>
       </c>
@@ -7129,7 +7125,7 @@
         <v>8.6349093936310961E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>41182</v>
       </c>
@@ -7176,7 +7172,7 @@
         <v>1.2191439057180229E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>41213</v>
       </c>
@@ -7223,7 +7219,7 @@
         <v>-1.40444848807153E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>41243</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>-1.050112614419119E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>41274</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>-3.2935503480279178E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>41305</v>
       </c>
@@ -7364,7 +7360,7 @@
         <v>-9.0956693420318757E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>41333</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>-9.4749964049156699E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>41364</v>
       </c>
@@ -7458,7 +7454,7 @@
         <v>-2.539538304720979E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>41394</v>
       </c>
@@ -7505,7 +7501,7 @@
         <v>1.390975243371884E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>41425</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>-2.9730139911118839E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>41455</v>
       </c>
@@ -7599,7 +7595,7 @@
         <v>-1.183692213286525E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>41486</v>
       </c>
@@ -7646,7 +7642,7 @@
         <v>1.2562947209014521E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>41517</v>
       </c>
@@ -7693,7 +7689,7 @@
         <v>-5.2451998426928936E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>41547</v>
       </c>
@@ -7740,7 +7736,7 @@
         <v>2.055773995596177E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>41578</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>9.8265794518803684E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>41608</v>
       </c>
@@ -7834,7 +7830,7 @@
         <v>-8.185881748817958E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>41639</v>
       </c>
@@ -7881,7 +7877,7 @@
         <v>-5.9709069676935336E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>41670</v>
       </c>
@@ -7929,7 +7925,7 @@
       </c>
       <c r="P147" s="6"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>41698</v>
       </c>
@@ -7977,7 +7973,7 @@
       </c>
       <c r="P148" s="6"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>41729</v>
       </c>
@@ -8025,7 +8021,7 @@
       </c>
       <c r="P149" s="6"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>41759</v>
       </c>
@@ -8073,7 +8069,7 @@
       </c>
       <c r="P150" s="6"/>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>41790</v>
       </c>
@@ -8121,7 +8117,7 @@
       </c>
       <c r="P151" s="6"/>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>41820</v>
       </c>
@@ -8169,7 +8165,7 @@
       </c>
       <c r="P152" s="6"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>41851</v>
       </c>
@@ -8217,7 +8213,7 @@
       </c>
       <c r="P153" s="6"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>41882</v>
       </c>
@@ -8265,7 +8261,7 @@
       </c>
       <c r="P154" s="6"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>41912</v>
       </c>
@@ -8313,7 +8309,7 @@
       </c>
       <c r="P155" s="6"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>41943</v>
       </c>
@@ -8361,7 +8357,7 @@
       </c>
       <c r="P156" s="6"/>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>41973</v>
       </c>
@@ -8409,7 +8405,7 @@
       </c>
       <c r="P157" s="6"/>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>42004</v>
       </c>
@@ -8457,7 +8453,7 @@
       </c>
       <c r="P158" s="6"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>42035</v>
       </c>
@@ -8505,7 +8501,7 @@
       </c>
       <c r="P159" s="6"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>42063</v>
       </c>
@@ -8553,7 +8549,7 @@
       </c>
       <c r="P160" s="6"/>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>42094</v>
       </c>
@@ -8601,7 +8597,7 @@
       </c>
       <c r="P161" s="6"/>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>42124</v>
       </c>
@@ -8649,7 +8645,7 @@
       </c>
       <c r="P162" s="6"/>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>42155</v>
       </c>
@@ -8697,7 +8693,7 @@
       </c>
       <c r="P163" s="6"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>42185</v>
       </c>
@@ -8745,7 +8741,7 @@
       </c>
       <c r="P164" s="6"/>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>42216</v>
       </c>
@@ -8793,7 +8789,7 @@
       </c>
       <c r="P165" s="6"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>42247</v>
       </c>
@@ -8841,7 +8837,7 @@
       </c>
       <c r="P166" s="6"/>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>42277</v>
       </c>
@@ -8889,7 +8885,7 @@
       </c>
       <c r="P167" s="6"/>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>42308</v>
       </c>
@@ -8937,7 +8933,7 @@
       </c>
       <c r="P168" s="6"/>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>42338</v>
       </c>
@@ -8985,7 +8981,7 @@
       </c>
       <c r="P169" s="6"/>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>42369</v>
       </c>
@@ -9033,7 +9029,7 @@
       </c>
       <c r="P170" s="6"/>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>42400</v>
       </c>
@@ -9081,7 +9077,7 @@
       </c>
       <c r="P171" s="6"/>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>42429</v>
       </c>
@@ -9129,7 +9125,7 @@
       </c>
       <c r="P172" s="6"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>42460</v>
       </c>
@@ -9177,7 +9173,7 @@
       </c>
       <c r="P173" s="6"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>42490</v>
       </c>
@@ -9225,7 +9221,7 @@
       </c>
       <c r="P174" s="6"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>42521</v>
       </c>
@@ -9273,7 +9269,7 @@
       </c>
       <c r="P175" s="6"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>42551</v>
       </c>
@@ -9321,7 +9317,7 @@
       </c>
       <c r="P176" s="6"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>42582</v>
       </c>
@@ -9369,7 +9365,7 @@
       </c>
       <c r="P177" s="6"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>42613</v>
       </c>
@@ -9417,7 +9413,7 @@
       </c>
       <c r="P178" s="6"/>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>42643</v>
       </c>
@@ -9465,7 +9461,7 @@
       </c>
       <c r="P179" s="6"/>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>42674</v>
       </c>
@@ -9513,7 +9509,7 @@
       </c>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>42704</v>
       </c>
@@ -9561,7 +9557,7 @@
       </c>
       <c r="P181" s="6"/>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>42735</v>
       </c>
@@ -9609,7 +9605,7 @@
       </c>
       <c r="P182" s="6"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>42766</v>
       </c>
@@ -9657,7 +9653,7 @@
       </c>
       <c r="P183" s="6"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>42794</v>
       </c>
@@ -9705,7 +9701,7 @@
       </c>
       <c r="P184" s="6"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>42825</v>
       </c>
@@ -9753,7 +9749,7 @@
       </c>
       <c r="P185" s="6"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>42855</v>
       </c>
@@ -9801,7 +9797,7 @@
       </c>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>42886</v>
       </c>
@@ -9849,7 +9845,7 @@
       </c>
       <c r="P187" s="6"/>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>42916</v>
       </c>
@@ -9897,7 +9893,7 @@
       </c>
       <c r="P188" s="6"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>42947</v>
       </c>
@@ -9945,7 +9941,7 @@
       </c>
       <c r="P189" s="6"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>42978</v>
       </c>
@@ -9993,7 +9989,7 @@
       </c>
       <c r="P190" s="6"/>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>43008</v>
       </c>
@@ -10041,7 +10037,7 @@
       </c>
       <c r="P191" s="6"/>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>43039</v>
       </c>
@@ -10089,7 +10085,7 @@
       </c>
       <c r="P192" s="6"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>43069</v>
       </c>
@@ -10137,7 +10133,7 @@
       </c>
       <c r="P193" s="6"/>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>43100</v>
       </c>
@@ -10185,7 +10181,7 @@
       </c>
       <c r="P194" s="6"/>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>43131</v>
       </c>
@@ -10233,7 +10229,7 @@
       </c>
       <c r="P195" s="6"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>43159</v>
       </c>
@@ -10281,7 +10277,7 @@
       </c>
       <c r="P196" s="6"/>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>43190</v>
       </c>
@@ -10329,7 +10325,7 @@
       </c>
       <c r="P197" s="6"/>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>43220</v>
       </c>
@@ -10377,7 +10373,7 @@
       </c>
       <c r="P198" s="6"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>43251</v>
       </c>
@@ -10425,7 +10421,7 @@
       </c>
       <c r="P199" s="6"/>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>43281</v>
       </c>
@@ -10473,7 +10469,7 @@
       </c>
       <c r="P200" s="6"/>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>43312</v>
       </c>
@@ -10521,7 +10517,7 @@
       </c>
       <c r="P201" s="6"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>43343</v>
       </c>
@@ -10569,7 +10565,7 @@
       </c>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>43373</v>
       </c>
@@ -10617,7 +10613,7 @@
       </c>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>43404</v>
       </c>
@@ -10665,7 +10661,7 @@
       </c>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>43434</v>
       </c>
@@ -10713,7 +10709,7 @@
       </c>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>43465</v>
       </c>
@@ -10761,7 +10757,7 @@
       </c>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>43496</v>
       </c>
@@ -10809,7 +10805,7 @@
       </c>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>43524</v>
       </c>
@@ -10857,7 +10853,7 @@
       </c>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>43555</v>
       </c>
@@ -10905,7 +10901,7 @@
       </c>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>43585</v>
       </c>
@@ -10953,7 +10949,7 @@
       </c>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>43616</v>
       </c>
@@ -11001,7 +10997,7 @@
       </c>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>43646</v>
       </c>
@@ -11049,7 +11045,7 @@
       </c>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>43677</v>
       </c>
@@ -11097,7 +11093,7 @@
       </c>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>43708</v>
       </c>
@@ -11145,7 +11141,7 @@
       </c>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>43738</v>
       </c>
@@ -11193,7 +11189,7 @@
       </c>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>43769</v>
       </c>
@@ -11241,7 +11237,7 @@
       </c>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>43799</v>
       </c>
@@ -11289,7 +11285,7 @@
       </c>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>43830</v>
       </c>
@@ -11337,7 +11333,7 @@
       </c>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>43861</v>
       </c>
@@ -11400,7 +11396,7 @@
       <c r="AI219" s="5"/>
       <c r="AJ219" s="5"/>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>43890</v>
       </c>
@@ -11448,7 +11444,7 @@
       </c>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>43921</v>
       </c>
@@ -11496,7 +11492,7 @@
       </c>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>43951</v>
       </c>
@@ -11544,7 +11540,7 @@
       </c>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>43982</v>
       </c>
@@ -11592,7 +11588,7 @@
       </c>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>44012</v>
       </c>
@@ -11640,7 +11636,7 @@
       </c>
       <c r="P224" s="6"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>44043</v>
       </c>
@@ -11688,7 +11684,7 @@
       </c>
       <c r="P225" s="6"/>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>44074</v>
       </c>
@@ -11736,7 +11732,7 @@
       </c>
       <c r="P226" s="6"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>44104</v>
       </c>
@@ -11784,7 +11780,7 @@
       </c>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>44135</v>
       </c>
@@ -11832,7 +11828,7 @@
       </c>
       <c r="P228" s="6"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>44165</v>
       </c>
@@ -11880,7 +11876,7 @@
       </c>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>44196</v>
       </c>
@@ -11928,7 +11924,7 @@
       </c>
       <c r="P230" s="6"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>44227</v>
       </c>
@@ -11976,7 +11972,7 @@
       </c>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>44255</v>
       </c>
@@ -12024,7 +12020,7 @@
       </c>
       <c r="P232" s="6"/>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>44286</v>
       </c>
@@ -12072,7 +12068,7 @@
       </c>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>44316</v>
       </c>
@@ -12120,7 +12116,7 @@
       </c>
       <c r="P234" s="6"/>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>44347</v>
       </c>
@@ -12168,7 +12164,7 @@
       </c>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>44377</v>
       </c>
@@ -12216,7 +12212,7 @@
       </c>
       <c r="P236" s="6"/>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>44408</v>
       </c>
@@ -12264,7 +12260,7 @@
       </c>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>44439</v>
       </c>
@@ -12312,7 +12308,7 @@
       </c>
       <c r="P238" s="6"/>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>44469</v>
       </c>
@@ -12360,7 +12356,7 @@
       </c>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>44500</v>
       </c>
@@ -12408,7 +12404,7 @@
       </c>
       <c r="P240" s="6"/>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>44530</v>
       </c>
@@ -12456,7 +12452,7 @@
       </c>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>44561</v>
       </c>
@@ -12504,7 +12500,7 @@
       </c>
       <c r="P242" s="6"/>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>44592</v>
       </c>
@@ -12552,7 +12548,7 @@
       </c>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>44620</v>
       </c>
@@ -12600,7 +12596,7 @@
       </c>
       <c r="P244" s="6"/>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>44651</v>
       </c>
@@ -12648,7 +12644,7 @@
       </c>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>44681</v>
       </c>
@@ -12696,7 +12692,7 @@
       </c>
       <c r="P246" s="6"/>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>44712</v>
       </c>
@@ -12744,7 +12740,7 @@
       </c>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>44742</v>
       </c>
@@ -12792,7 +12788,7 @@
       </c>
       <c r="P248" s="6"/>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>44773</v>
       </c>
@@ -12840,7 +12836,7 @@
       </c>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>44804</v>
       </c>
@@ -12888,7 +12884,7 @@
       </c>
       <c r="P250" s="6"/>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>44834</v>
       </c>
@@ -12936,7 +12932,7 @@
       </c>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>44865</v>
       </c>
@@ -12984,7 +12980,7 @@
       </c>
       <c r="P252" s="6"/>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>44895</v>
       </c>
@@ -13032,7 +13028,7 @@
       </c>
       <c r="P253" s="6"/>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>44926</v>
       </c>
@@ -13080,7 +13076,7 @@
       </c>
       <c r="P254" s="6"/>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>44957</v>
       </c>
@@ -13128,7 +13124,7 @@
       </c>
       <c r="P255" s="6"/>
     </row>
-    <row r="257" spans="13:13">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M257" s="7"/>
     </row>
   </sheetData>
@@ -13148,7 +13144,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -13157,35 +13153,35 @@
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.6640625"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" customWidth="1"/>
     <col min="18" max="29" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" thickBot="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="I1" s="87" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="I1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="O1" s="89" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="O1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
-    </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" ht="32">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="92"/>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -13226,7 +13222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -13275,7 +13271,7 @@
         <v>13.16666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
@@ -13330,7 +13326,7 @@
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -13384,7 +13380,7 @@
         <v>54.284233900814208</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16" thickBot="1">
+    <row r="6" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="I6" s="25" t="s">
         <v>11</v>
@@ -13419,7 +13415,7 @@
         <v>-0.57509137891791284</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>20</v>
       </c>
@@ -13448,7 +13444,7 @@
         <v>0.36160826821275532</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16" thickBot="1">
+    <row r="8" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>21</v>
       </c>
@@ -13456,13 +13452,13 @@
         <f>SUM(B3:E3)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
       <c r="O8" s="24">
         <f t="shared" si="1"/>
         <v>2016</v>
@@ -13480,7 +13476,7 @@
         <v>1.2031148754975469</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
@@ -13518,7 +13514,7 @@
         <v>13.7509584983351</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -13559,7 +13555,7 @@
         <v>-0.738363291191521</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>4</v>
       </c>
@@ -13593,7 +13589,7 @@
         <v>0.94826328595768339</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>10</v>
       </c>
@@ -13627,15 +13623,15 @@
         <v>3.0507385164292491</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" thickBot="1">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
       <c r="I13" s="25" t="s">
         <v>11</v>
       </c>
@@ -13668,15 +13664,15 @@
         <v>0.59791704315174243</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="O14" s="36">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -13694,7 +13690,7 @@
         <v>-0.64303481379084104</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="48">
+    <row r="15" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>20</v>
       </c>
@@ -13734,7 +13730,7 @@
         <v>7.2988195917147012</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="33" thickBot="1">
+    <row r="16" spans="1:21" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>0.02</v>
       </c>
@@ -13769,7 +13765,7 @@
         <v>15.63252276337094</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>0.04</v>
       </c>
@@ -13785,7 +13781,7 @@
       <c r="H17" s="5"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>0.06</v>
       </c>
@@ -13801,7 +13797,7 @@
       <c r="H18" s="5"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>0.08</v>
       </c>
@@ -13817,7 +13813,7 @@
       <c r="H19" s="15"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>0.1</v>
       </c>
@@ -13833,7 +13829,7 @@
       <c r="H20" s="4"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>0.12</v>
       </c>
@@ -13852,7 +13848,7 @@
       <c r="K21" s="4"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>0.14000000000000001</v>
       </c>
@@ -13870,7 +13866,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>0.16</v>
       </c>
@@ -13888,7 +13884,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>0.18</v>
       </c>
@@ -13906,7 +13902,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -13919,7 +13915,7 @@
       <c r="K25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
@@ -13927,15 +13923,15 @@
       <c r="K26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="16" thickBot="1">
-      <c r="A27" s="83" t="s">
+    <row r="27" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
@@ -13943,7 +13939,7 @@
       <c r="K27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:27" ht="49" thickBot="1">
+    <row r="28" spans="1:27" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>20</v>
       </c>
@@ -13969,7 +13965,7 @@
       <c r="K28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>0.02</v>
       </c>
@@ -13999,7 +13995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>0.04</v>
       </c>
@@ -14029,7 +14025,7 @@
         <v>-7.1253873824844466E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <v>0.06</v>
       </c>
@@ -14044,7 +14040,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>0.08</v>
       </c>
@@ -14059,7 +14055,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>0.1</v>
       </c>
@@ -14074,7 +14070,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <v>0.12</v>
       </c>
@@ -14089,7 +14085,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -14104,7 +14100,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>0.16</v>
       </c>
@@ -14119,7 +14115,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>0.18</v>
       </c>
@@ -14134,7 +14130,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -14143,24 +14139,24 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="83" t="s">
+    <row r="40" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="48">
+    <row r="41" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>20</v>
       </c>
@@ -14182,7 +14178,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>0.02</v>
       </c>
@@ -14195,7 +14191,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>0.04</v>
       </c>
@@ -14208,7 +14204,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>0.06</v>
       </c>
@@ -14223,7 +14219,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>0.08</v>
       </c>
@@ -14238,7 +14234,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>0.1</v>
       </c>
@@ -14253,7 +14249,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>0.12</v>
       </c>
@@ -14268,7 +14264,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>0.14000000000000001</v>
       </c>
@@ -14283,7 +14279,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>0.16</v>
       </c>
@@ -14298,7 +14294,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>0.18</v>
       </c>
@@ -14313,7 +14309,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -14322,23 +14318,23 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="16" thickBot="1">
-      <c r="A53" s="83" t="s">
+    <row r="53" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="48">
+    <row r="54" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>20</v>
       </c>
@@ -14360,7 +14356,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>0.02</v>
       </c>
@@ -14373,7 +14369,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>0.04</v>
       </c>
@@ -14386,7 +14382,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>0.06</v>
       </c>
@@ -14401,7 +14397,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>0.08</v>
       </c>
@@ -14416,7 +14412,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>0.1</v>
       </c>
@@ -14431,7 +14427,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>0.12</v>
       </c>
@@ -14446,7 +14442,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>0.14000000000000001</v>
       </c>
@@ -14461,7 +14457,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>0.16</v>
       </c>
@@ -14476,7 +14472,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>0.18</v>
       </c>
@@ -14491,19 +14487,19 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="7:8">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="7:8">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="7:8">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
@@ -14532,50 +14528,50 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="4" width="8.6640625"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="10" width="8.6640625"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="14" width="8.6640625"/>
-    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
     <col min="16" max="22" width="8.6640625"/>
-    <col min="23" max="23" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="8.77734375" customWidth="1"/>
     <col min="24" max="29" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" thickBot="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="K1" s="95" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="K1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="S1" s="96" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="S1" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="98"/>
-    </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1">
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="99"/>
+    </row>
+    <row r="2" spans="1:25" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="78" t="s">
         <v>2</v>
@@ -14634,7 +14630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -14701,7 +14697,7 @@
         <v>13.16666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
@@ -14775,7 +14771,7 @@
         <v>2.178823529411765</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -14849,7 +14845,7 @@
         <v>54.284233900814208</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="K6" s="54" t="s">
         <v>9</v>
@@ -14897,7 +14893,7 @@
         <v>-0.57509137891791284</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>20</v>
       </c>
@@ -14950,7 +14946,7 @@
         <v>0.36160826821275532</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" thickBot="1">
+    <row r="8" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>21</v>
       </c>
@@ -15003,7 +14999,7 @@
         <v>1.2031148754975469</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
@@ -15034,7 +15030,7 @@
         <v>13.7509584983351</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" thickBot="1">
+    <row r="10" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -15042,15 +15038,15 @@
         <f t="array" ref="B10">IFERROR(SQRT(MMULT(MMULT(B3:G3,L3:Q8),TRANSPOSE(B3:G3))),0)</f>
         <v>0.10656610946931153</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
       <c r="S10" s="55">
         <f t="shared" si="1"/>
         <v>2018</v>
@@ -15074,7 +15070,7 @@
         <v>-0.738363291191521</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="32">
+    <row r="11" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="K11" s="51"/>
       <c r="L11" s="16" t="s">
@@ -15118,7 +15114,7 @@
         <v>0.94826328595768339</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K12" s="54" t="s">
         <v>2</v>
       </c>
@@ -15164,17 +15160,17 @@
         <v>3.0507385164292491</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" thickBot="1">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
       <c r="K13" s="54" t="s">
         <v>4</v>
       </c>
@@ -15220,17 +15216,17 @@
         <v>0.59791704315174243</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
       <c r="K14" s="54" t="s">
         <v>8</v>
       </c>
@@ -15276,7 +15272,7 @@
         <v>-0.64303481379084104</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="48">
+    <row r="15" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>20</v>
       </c>
@@ -15353,7 +15349,7 @@
         <v>7.2988195917147012</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="33" thickBot="1">
+    <row r="16" spans="1:25" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>0.02</v>
       </c>
@@ -15419,7 +15415,7 @@
         <v>15.63252276337094</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="16" thickBot="1">
+    <row r="17" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>0.04</v>
       </c>
@@ -15457,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>0.06</v>
       </c>
@@ -15480,7 +15476,7 @@
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <v>0.08</v>
       </c>
@@ -15497,7 +15493,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <v>0.1</v>
       </c>
@@ -15514,7 +15510,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <v>0.12</v>
       </c>
@@ -15531,7 +15527,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -15548,7 +15544,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>0.16</v>
       </c>
@@ -15565,7 +15561,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>0.18</v>
       </c>
@@ -15582,7 +15578,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -15592,7 +15588,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H26" s="6" t="str">
         <f t="array" ref="H26">IFERROR(MMULT(B26:G26,TRANSPOSE($B$4:$G$4)),"")</f>
         <v/>
@@ -15600,21 +15596,21 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:28" ht="16" thickBot="1">
-      <c r="A27" s="83" t="s">
+    <row r="27" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:28" ht="48">
+    <row r="28" spans="1:28" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>20</v>
       </c>
@@ -15642,7 +15638,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>0.02</v>
       </c>
@@ -15666,7 +15662,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>0.04</v>
       </c>
@@ -15683,7 +15679,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <v>0.06</v>
       </c>
@@ -15700,7 +15696,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>0.08</v>
       </c>
@@ -15717,7 +15713,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>0.1</v>
       </c>
@@ -15734,7 +15730,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <v>0.12</v>
       </c>
@@ -15751,7 +15747,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -15768,7 +15764,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>0.16</v>
       </c>
@@ -15785,7 +15781,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>0.18</v>
       </c>
@@ -15802,7 +15798,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -15812,27 +15808,27 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="16" thickBot="1">
-      <c r="A40" s="83" t="s">
+    <row r="40" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="48">
+    <row r="41" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>20</v>
       </c>
@@ -15860,7 +15856,7 @@
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>0.02</v>
       </c>
@@ -15877,7 +15873,7 @@
       <c r="I42" s="80"/>
       <c r="J42" s="80"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <v>0.04</v>
       </c>
@@ -15894,7 +15890,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>0.06</v>
       </c>
@@ -15911,7 +15907,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>0.08</v>
       </c>
@@ -15928,7 +15924,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>0.1</v>
       </c>
@@ -15945,7 +15941,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>0.12</v>
       </c>
@@ -15962,7 +15958,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -15979,7 +15975,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>0.16</v>
       </c>
@@ -15998,7 +15994,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <v>0.18</v>
       </c>
@@ -16015,7 +16011,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -16025,26 +16021,26 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="16" thickBot="1">
-      <c r="A53" s="83" t="s">
+    <row r="53" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="48">
+    <row r="54" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>20</v>
       </c>
@@ -16072,7 +16068,7 @@
       <c r="I54" s="46"/>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <v>0.02</v>
       </c>
@@ -16089,7 +16085,7 @@
       <c r="I55" s="80"/>
       <c r="J55" s="80"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <v>0.04</v>
       </c>
@@ -16106,7 +16102,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="50">
         <v>0.06</v>
       </c>
@@ -16123,7 +16119,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="50">
         <v>0.08</v>
       </c>
@@ -16140,7 +16136,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <v>0.1</v>
       </c>
@@ -16157,7 +16153,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <v>0.12</v>
       </c>
@@ -16174,7 +16170,7 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -16191,7 +16187,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <v>0.16</v>
       </c>
@@ -16208,7 +16204,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>0.18</v>
       </c>
@@ -16225,7 +16221,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
@@ -16254,7 +16250,7 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="13" width="8.6640625"/>
@@ -16262,45 +16258,45 @@
     <col min="15" max="37" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" thickBot="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="N1" s="83" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="N1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="Y1" s="100" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="Y1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="102"/>
-    </row>
-    <row r="2" spans="1:34" ht="66" thickTop="1" thickBot="1">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="103"/>
+    </row>
+    <row r="2" spans="1:34" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81"/>
       <c r="B2" s="78" t="s">
         <v>2</v>
@@ -16386,7 +16382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -16480,7 +16476,7 @@
         <v>13.16666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
@@ -16584,7 +16580,7 @@
         <v>2.178823529411765</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -16688,7 +16684,7 @@
         <v>54.284233900814208</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="N6" s="54" t="s">
         <v>6</v>
@@ -16754,7 +16750,7 @@
         <v>-0.57509137891791284</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
@@ -16825,7 +16821,7 @@
         <v>0.36160826821275532</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>37</v>
       </c>
@@ -16897,7 +16893,7 @@
         <v>1.2031148754975469</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>38</v>
       </c>
@@ -16969,7 +16965,7 @@
         <v>13.7509584983351</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -17041,7 +17037,7 @@
         <v>-0.738363291191521</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="16" thickBot="1">
+    <row r="11" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N11" s="60" t="s">
         <v>11</v>
       </c>
@@ -17105,7 +17101,7 @@
         <v>0.94826328595768339</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="64"/>
       <c r="Y12" s="55">
         <f t="shared" si="1"/>
@@ -17139,20 +17135,20 @@
         <v>3.0507385164292491</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="16" thickBot="1">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
       <c r="Y13" s="55">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -17185,34 +17181,34 @@
         <v>0.59791704315174243</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
       <c r="Y14" s="61">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -17245,7 +17241,7 @@
         <v>-0.64303481379084104</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="64">
+    <row r="15" spans="1:34" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>20</v>
       </c>
@@ -17349,7 +17345,7 @@
         <v>7.2988195917147012</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="33" thickBot="1">
+    <row r="16" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>0.02</v>
       </c>
@@ -17439,7 +17435,7 @@
         <v>15.63252276337094</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>0.04</v>
       </c>
@@ -17490,7 +17486,7 @@
         <v>0.40850180679550629</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>0.06</v>
       </c>
@@ -17541,7 +17537,7 @@
         <v>0.37879653048561274</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <v>0.08</v>
       </c>
@@ -17592,7 +17588,7 @@
         <v>-3.2485606617707802E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <v>0.1</v>
       </c>
@@ -17643,7 +17639,7 @@
         <v>0.23474492821572679</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <v>0.12</v>
       </c>
@@ -17694,7 +17690,7 @@
         <v>-9.5646983259071783E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -17745,7 +17741,7 @@
         <v>3.7856647638709177E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>0.16</v>
       </c>
@@ -17796,7 +17792,7 @@
         <v>-0.56443459854193845</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="16" thickBot="1">
+    <row r="24" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50">
         <v>0.18</v>
       </c>
@@ -17846,7 +17842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -17860,7 +17856,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -17874,25 +17870,25 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:36" ht="16" thickBot="1">
-      <c r="A27" s="83" t="s">
+    <row r="27" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:36" ht="64">
+    <row r="28" spans="1:36" ht="69" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>20</v>
       </c>
@@ -17939,7 +17935,7 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>0.02</v>
       </c>
@@ -17960,7 +17956,7 @@
       <c r="M29" s="46"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>0.04</v>
       </c>
@@ -17981,7 +17977,7 @@
       <c r="M30" s="80"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <v>0.06</v>
       </c>
@@ -18002,7 +17998,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>0.08</v>
       </c>
@@ -18023,7 +18019,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>0.1</v>
       </c>
@@ -18044,7 +18040,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <v>0.12</v>
       </c>
@@ -18065,7 +18061,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -18086,7 +18082,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>0.16</v>
       </c>
@@ -18107,7 +18103,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>0.18</v>
       </c>
@@ -18129,7 +18125,7 @@
       <c r="N37" s="6"/>
       <c r="AG37" s="5"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -18143,7 +18139,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="K39" s="6" t="str">
         <f t="array" ref="K39">IFERROR(MMULT(B39:J39,TRANSPOSE($B$4:$J$4)),"")</f>
@@ -18153,25 +18149,25 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:33" ht="16" thickBot="1">
-      <c r="A40" s="83" t="s">
+    <row r="40" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:33" ht="64">
+    <row r="41" spans="1:33" ht="69" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>20</v>
       </c>
@@ -18209,7 +18205,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>0.02</v>
       </c>
@@ -18230,7 +18226,7 @@
       <c r="M42" s="46"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <v>0.04</v>
       </c>
@@ -18251,7 +18247,7 @@
       <c r="M43" s="80"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>0.06</v>
       </c>
@@ -18272,7 +18268,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>0.08</v>
       </c>
@@ -18293,7 +18289,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>0.1</v>
       </c>
@@ -18314,7 +18310,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>0.12</v>
       </c>
@@ -18335,7 +18331,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -18358,7 +18354,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>0.16</v>
       </c>
@@ -18379,7 +18375,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <v>0.18</v>
       </c>
@@ -18400,7 +18396,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -18417,7 +18413,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K52" s="6" t="str">
         <f t="array" ref="K52">IFERROR(MMULT(B52:J52,TRANSPOSE($B$4:$J$4)),"")</f>
         <v/>
@@ -18426,25 +18422,25 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1">
-      <c r="A53" s="83" t="s">
+    <row r="53" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" ht="64">
+    <row r="54" spans="1:14" ht="69" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>20</v>
       </c>
@@ -18482,7 +18478,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <v>0.02</v>
       </c>
@@ -18503,7 +18499,7 @@
       <c r="M55" s="46"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <v>0.04</v>
       </c>
@@ -18524,7 +18520,7 @@
       <c r="M56" s="80"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="50">
         <v>0.06</v>
       </c>
@@ -18545,7 +18541,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="50">
         <v>0.08</v>
       </c>
@@ -18566,7 +18562,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <v>0.1</v>
       </c>
@@ -18587,7 +18583,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <v>0.12</v>
       </c>
@@ -18608,7 +18604,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -18629,7 +18625,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <v>0.16</v>
       </c>
@@ -18650,7 +18646,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>0.18</v>
       </c>
@@ -18671,23 +18667,23 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="12:14">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="12:14">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="12:14">
+    <row r="67" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="12:14">
+    <row r="68" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N68" s="6"/>
     </row>
   </sheetData>
@@ -18711,60 +18707,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9AFCB-08B3-4194-A75D-D257FBCD3E96}">
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="87" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.6640625"/>
     <col min="14" max="14" width="29" customWidth="1"/>
     <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="37" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" thickBot="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="N1" s="83" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="N1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="Y1" s="100" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="Y1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="102"/>
-    </row>
-    <row r="2" spans="1:34" ht="66" thickTop="1" thickBot="1">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="103"/>
+    </row>
+    <row r="2" spans="1:34" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81"/>
       <c r="B2" s="78" t="s">
         <v>2</v>
@@ -18850,7 +18846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
@@ -18944,7 +18940,7 @@
         <v>13.16666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
@@ -19048,7 +19044,7 @@
         <v>2.178823529411765</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -19152,7 +19148,7 @@
         <v>54.284233900814208</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="N6" s="54" t="s">
         <v>6</v>
@@ -19218,7 +19214,7 @@
         <v>-0.57509137891791284</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
@@ -19289,7 +19285,7 @@
         <v>0.36160826821275532</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>37</v>
       </c>
@@ -19361,7 +19357,7 @@
         <v>1.2031148754975469</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>38</v>
       </c>
@@ -19433,7 +19429,7 @@
         <v>13.7509584983351</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -19505,7 +19501,7 @@
         <v>-0.738363291191521</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="16" thickBot="1">
+    <row r="11" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N11" s="60" t="s">
         <v>11</v>
       </c>
@@ -19569,7 +19565,7 @@
         <v>0.94826328595768339</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="64"/>
       <c r="Y12" s="55">
         <f t="shared" si="1"/>
@@ -19603,20 +19599,20 @@
         <v>3.0507385164292491</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="16" thickBot="1">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
       <c r="Y13" s="55">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -19649,34 +19645,34 @@
         <v>0.59791704315174243</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="17" thickTop="1" thickBot="1">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:34" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
       <c r="Y14" s="61">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -19709,7 +19705,7 @@
         <v>-0.64303481379084104</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="64">
+    <row r="15" spans="1:34" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>20</v>
       </c>
@@ -19813,7 +19809,7 @@
         <v>7.2988195917147012</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="33" thickBot="1">
+    <row r="16" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>0.02</v>
       </c>
@@ -19903,7 +19899,7 @@
         <v>15.63252276337094</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>0.04</v>
       </c>
@@ -19954,7 +19950,7 @@
         <v>0.40850180679550629</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>0.06</v>
       </c>
@@ -20005,7 +20001,7 @@
         <v>0.37879653048561274</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <v>0.08</v>
       </c>
@@ -20056,7 +20052,7 @@
         <v>-3.2485606617707802E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <v>0.1</v>
       </c>
@@ -20107,7 +20103,7 @@
         <v>0.23474492821572679</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <v>0.12</v>
       </c>
@@ -20158,7 +20154,7 @@
         <v>-9.5646983259071783E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -20209,7 +20205,7 @@
         <v>3.7856647638709177E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>0.16</v>
       </c>
@@ -20260,7 +20256,7 @@
         <v>-0.56443459854193845</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="16" thickBot="1">
+    <row r="24" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50">
         <v>0.18</v>
       </c>
@@ -20310,7 +20306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -20324,7 +20320,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -20338,25 +20334,25 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:36" ht="16" thickBot="1">
-      <c r="A27" s="83" t="s">
+    <row r="27" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:36" ht="64">
+    <row r="28" spans="1:36" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>20</v>
       </c>
@@ -20403,7 +20399,7 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>0.02</v>
       </c>
@@ -20424,7 +20420,7 @@
       <c r="M29" s="46"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>0.04</v>
       </c>
@@ -20445,7 +20441,7 @@
       <c r="M30" s="80"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <v>0.06</v>
       </c>
@@ -20466,7 +20462,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>0.08</v>
       </c>
@@ -20487,7 +20483,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>0.1</v>
       </c>
@@ -20508,7 +20504,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <v>0.12</v>
       </c>
@@ -20529,7 +20525,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -20550,7 +20546,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>0.16</v>
       </c>
@@ -20571,7 +20567,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>0.18</v>
       </c>
@@ -20593,7 +20589,7 @@
       <c r="N37" s="6"/>
       <c r="AG37" s="5"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -20607,7 +20603,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="K39" s="6" t="str">
         <f t="array" ref="K39">IFERROR(MMULT(B39:J39,TRANSPOSE($B$4:$J$4)),"")</f>
@@ -20617,25 +20613,25 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:33" ht="16" thickBot="1">
-      <c r="A40" s="83" t="s">
+    <row r="40" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:33" ht="64">
+    <row r="41" spans="1:33" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>20</v>
       </c>
@@ -20673,7 +20669,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>0.02</v>
       </c>
@@ -20694,7 +20690,7 @@
       <c r="M42" s="46"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <v>0.04</v>
       </c>
@@ -20715,7 +20711,7 @@
       <c r="M43" s="80"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>0.06</v>
       </c>
@@ -20736,7 +20732,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>0.08</v>
       </c>
@@ -20757,7 +20753,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>0.1</v>
       </c>
@@ -20778,7 +20774,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>0.12</v>
       </c>
@@ -20799,7 +20795,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -20822,7 +20818,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>0.16</v>
       </c>
@@ -20843,7 +20839,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <v>0.18</v>
       </c>
@@ -20864,7 +20860,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -20881,7 +20877,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K52" s="6" t="str">
         <f t="array" ref="K52">IFERROR(MMULT(B52:J52,TRANSPOSE($B$4:$J$4)),"")</f>
         <v/>
@@ -20890,30 +20886,30 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" ht="16" thickBot="1">
-      <c r="A54" s="83" t="s">
+    <row r="54" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" ht="64">
+    <row r="55" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
         <v>20</v>
       </c>
@@ -20951,7 +20947,7 @@
       <c r="M55" s="46"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <v>0.02</v>
       </c>
@@ -20972,7 +20968,7 @@
       <c r="M56" s="80"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="50">
         <v>0.04</v>
       </c>
@@ -20993,7 +20989,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="50">
         <v>0.06</v>
       </c>
@@ -21014,7 +21010,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <v>0.08</v>
       </c>
@@ -21035,7 +21031,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <v>0.1</v>
       </c>
@@ -21056,7 +21052,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <v>0.12</v>
       </c>
@@ -21077,7 +21073,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <v>0.14000000000000001</v>
       </c>
@@ -21098,7 +21094,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>0.16</v>
       </c>
@@ -21119,7 +21115,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="50">
         <v>0.18</v>
       </c>
@@ -21140,18 +21136,18 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="12:14">
+    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="12:14">
+    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="12:14">
+    <row r="67" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="12:14">
+    <row r="68" spans="12:14" x14ac:dyDescent="0.25">
       <c r="N68" s="6"/>
     </row>
   </sheetData>
@@ -21182,32 +21178,32 @@
       <selection pane="bottomLeft" activeCell="V121" sqref="V121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-    </row>
-    <row r="2" spans="1:28" ht="64">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+    </row>
+    <row r="2" spans="1:28" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -21258,7 +21254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>37287</v>
       </c>
@@ -21291,7 +21287,7 @@
         <v>-1.1806408582201829E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>37315</v>
       </c>
@@ -21326,7 +21322,7 @@
         <v>6.721491821313208E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>37346</v>
       </c>
@@ -21361,7 +21357,7 @@
         <v>-5.909440235607355E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>37376</v>
       </c>
@@ -21396,7 +21392,7 @@
         <v>2.9595350306103722E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>37407</v>
       </c>
@@ -21431,7 +21427,7 @@
         <v>2.242967753509828E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>37437</v>
       </c>
@@ -21466,7 +21462,7 @@
         <v>3.4816455357620457E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>37468</v>
       </c>
@@ -21505,7 +21501,7 @@
         <v>-3.9618757828226107E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>37499</v>
       </c>
@@ -21540,7 +21536,7 @@
         <v>1.6318165702422501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>37529</v>
       </c>
@@ -21575,7 +21571,7 @@
         <v>1.105000227864195E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>37560</v>
       </c>
@@ -21610,7 +21606,7 @@
         <v>-2.8476879837060491E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>37590</v>
       </c>
@@ -21645,7 +21641,7 @@
         <v>2.616201970792043E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>37621</v>
       </c>
@@ -21680,7 +21676,7 @@
         <v>4.0532695592430112E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>37652</v>
       </c>
@@ -21717,7 +21713,7 @@
         <v>1.1238005840634059E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>37680</v>
       </c>
@@ -21754,7 +21750,7 @@
         <v>1.2932440077596089E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>37711</v>
       </c>
@@ -21791,7 +21787,7 @@
         <v>2.497239223613557E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>37741</v>
       </c>
@@ -21828,7 +21824,7 @@
         <v>1.2827009198210121E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>37772</v>
       </c>
@@ -21865,7 +21861,7 @@
         <v>3.5544903132756378E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>37802</v>
       </c>
@@ -21902,7 +21898,7 @@
         <v>-1.0843486307058999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>37833</v>
       </c>
@@ -21939,7 +21935,7 @@
         <v>-2.9136609598729549E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>37864</v>
       </c>
@@ -21976,7 +21972,7 @@
         <v>-2.2881505167061671E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>37894</v>
       </c>
@@ -22013,7 +22009,7 @@
         <v>4.8061777576793967E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>37925</v>
       </c>
@@ -22052,7 +22048,7 @@
         <v>-5.5776415000354804E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>37955</v>
       </c>
@@ -22091,7 +22087,7 @@
         <v>1.3028310245060791E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>37986</v>
       </c>
@@ -22130,7 +22126,7 @@
         <v>3.2671360902554618E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>38017</v>
       </c>
@@ -22169,7 +22165,7 @@
         <v>3.7328896444264181E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>38046</v>
       </c>
@@ -22208,7 +22204,7 @@
         <v>5.1522151231468971E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>38077</v>
       </c>
@@ -22247,7 +22243,7 @@
         <v>1.107652395099845E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>38107</v>
       </c>
@@ -22286,7 +22282,7 @@
         <v>-3.656403634352956E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>38138</v>
       </c>
@@ -22325,7 +22321,7 @@
         <v>4.9003611723277274E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>38168</v>
       </c>
@@ -22364,7 +22360,7 @@
         <v>2.922565977729219E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>38199</v>
       </c>
@@ -22403,7 +22399,7 @@
         <v>-2.074828000888651E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>38230</v>
       </c>
@@ -22442,7 +22438,7 @@
         <v>2.1887266998019909E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>38260</v>
       </c>
@@ -22481,7 +22477,7 @@
         <v>1.181708971834383E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>38291</v>
       </c>
@@ -22520,7 +22516,7 @@
         <v>2.3953957382419459E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>38321</v>
       </c>
@@ -22559,7 +22555,7 @@
         <v>2.6496978688449468E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38352</v>
       </c>
@@ -22598,7 +22594,7 @@
         <v>1.532193350741928E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38383</v>
       </c>
@@ -22637,7 +22633,7 @@
         <v>-1.052426385046523E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38411</v>
       </c>
@@ -22676,7 +22672,7 @@
         <v>1.9035658999762011E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38442</v>
       </c>
@@ -22715,7 +22711,7 @@
         <v>-1.2098136671757079E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38472</v>
       </c>
@@ -22754,7 +22750,7 @@
         <v>1.308672595230909E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38503</v>
       </c>
@@ -22793,7 +22789,7 @@
         <v>-1.3397377359409929E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38533</v>
       </c>
@@ -22832,7 +22828,7 @@
         <v>-4.4845892626027561E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>38564</v>
       </c>
@@ -22871,7 +22867,7 @@
         <v>-8.006846642818255E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>38595</v>
       </c>
@@ -22910,7 +22906,7 @@
         <v>1.6459134151590279E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>38625</v>
       </c>
@@ -22949,7 +22945,7 @@
         <v>-1.592027546558461E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>38656</v>
       </c>
@@ -22988,7 +22984,7 @@
         <v>-1.4886017188058379E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>38686</v>
       </c>
@@ -23027,7 +23023,7 @@
         <v>-7.0979041242693608E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>38717</v>
       </c>
@@ -23066,7 +23062,7 @@
         <v>9.8715136837612683E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>38748</v>
       </c>
@@ -23107,7 +23103,7 @@
         <v>1.2614297684363731E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>38776</v>
       </c>
@@ -23148,7 +23144,7 @@
         <v>-3.5465658484864489E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>38807</v>
       </c>
@@ -23189,7 +23185,7 @@
         <v>-9.9131723640223379E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>38837</v>
       </c>
@@ -23230,7 +23226,7 @@
         <v>1.8928887317047449E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>38868</v>
       </c>
@@ -23271,7 +23267,7 @@
         <v>1.2897983485114841E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>38898</v>
       </c>
@@ -23312,7 +23308,7 @@
         <v>-7.9451695573354852E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>38929</v>
       </c>
@@ -23353,7 +23349,7 @@
         <v>9.9619177322134433E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>38960</v>
       </c>
@@ -23394,7 +23390,7 @@
         <v>1.1555066104359749E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>38990</v>
       </c>
@@ -23435,7 +23431,7 @@
         <v>-7.4683065693026407E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>39021</v>
       </c>
@@ -23476,7 +23472,7 @@
         <v>9.6735856267800013E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>39051</v>
       </c>
@@ -23517,7 +23513,7 @@
         <v>2.435446899414595E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>39082</v>
       </c>
@@ -23558,7 +23554,7 @@
         <v>-1.3256312785288051E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>39113</v>
       </c>
@@ -23599,7 +23595,7 @@
         <v>-9.8284604926325292E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>39141</v>
       </c>
@@ -23640,7 +23636,7 @@
         <v>2.0578465702402401E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>39172</v>
       </c>
@@ -23681,7 +23677,7 @@
         <v>2.3638204866058832E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>39202</v>
       </c>
@@ -23722,7 +23718,7 @@
         <v>1.13027125119447E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>39233</v>
       </c>
@@ -23763,7 +23759,7 @@
         <v>-1.559266039249629E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>39263</v>
       </c>
@@ -23804,7 +23800,7 @@
         <v>-4.4349055764421053E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>39294</v>
       </c>
@@ -23845,7 +23841,7 @@
         <v>2.0308132647347099E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>39325</v>
       </c>
@@ -23886,7 +23882,7 @@
         <v>1.231267768155297E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>39355</v>
       </c>
@@ -23927,7 +23923,7 @@
         <v>2.2443580979919941E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>39386</v>
       </c>
@@ -23968,7 +23964,7 @@
         <v>1.6299287191395399E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>39416</v>
       </c>
@@ -24009,7 +24005,7 @@
         <v>1.911052479912145E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>39447</v>
       </c>
@@ -24050,7 +24046,7 @@
         <v>-2.9812829750922591E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>39478</v>
       </c>
@@ -24091,7 +24087,7 @@
         <v>2.7778826626435601E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>39507</v>
       </c>
@@ -24132,7 +24128,7 @@
         <v>1.67274975589633E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>39538</v>
       </c>
@@ -24173,7 +24169,7 @@
         <v>2.039968566454764E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>39568</v>
       </c>
@@ -24214,7 +24210,7 @@
         <v>-1.90876917976095E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>39599</v>
       </c>
@@ -24255,7 +24251,7 @@
         <v>-1.10576500107098E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>39629</v>
       </c>
@@ -24296,7 +24292,7 @@
         <v>8.517583537215323E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>39660</v>
       </c>
@@ -24337,7 +24333,7 @@
         <v>1.3773233889398111E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>39691</v>
       </c>
@@ -24378,7 +24374,7 @@
         <v>-1.6528350348578798E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>39721</v>
       </c>
@@ -24419,7 +24415,7 @@
         <v>-2.352781095671086E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>39752</v>
       </c>
@@ -24460,7 +24456,7 @@
         <v>-3.686211424561181E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>39782</v>
       </c>
@@ -24503,7 +24499,7 @@
         <v>2.8915086290507212E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>39813</v>
       </c>
@@ -24546,7 +24542,7 @@
         <v>6.2130939937454999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>39844</v>
       </c>
@@ -24589,7 +24585,7 @@
         <v>-3.2701175380325243E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>39872</v>
       </c>
@@ -24632,7 +24628,7 @@
         <v>-2.2339857219173309E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>39903</v>
       </c>
@@ -24675,7 +24671,7 @@
         <v>2.3013748583143871E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>39933</v>
       </c>
@@ -24718,7 +24714,7 @@
         <v>8.9954877717373094E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>39964</v>
       </c>
@@ -24761,7 +24757,7 @@
         <v>3.5689598600021848E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>39994</v>
       </c>
@@ -24804,7 +24800,7 @@
         <v>4.137049056372577E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>40025</v>
       </c>
@@ -24847,7 +24843,7 @@
         <v>2.2144694975066988E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>40056</v>
       </c>
@@ -24890,7 +24886,7 @@
         <v>1.756576454637138E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>40086</v>
       </c>
@@ -24933,7 +24929,7 @@
         <v>2.137056776851232E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>40117</v>
       </c>
@@ -24976,7 +24972,7 @@
         <v>4.6982413831337944E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>40147</v>
       </c>
@@ -25019,7 +25015,7 @@
         <v>2.546366719867876E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>40178</v>
       </c>
@@ -25062,7 +25058,7 @@
         <v>-3.7626846744221787E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>40209</v>
       </c>
@@ -25105,7 +25101,7 @@
         <v>4.1308822450192304E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>40237</v>
       </c>
@@ -25148,7 +25144,7 @@
         <v>7.4427345710548209E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>40268</v>
       </c>
@@ -25191,7 +25187,7 @@
         <v>-7.5581717406796312E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>40298</v>
       </c>
@@ -25234,7 +25230,7 @@
         <v>1.6093982852760649E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>40329</v>
       </c>
@@ -25277,7 +25273,7 @@
         <v>-1.563117425877603E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>40359</v>
       </c>
@@ -25320,7 +25316,7 @@
         <v>1.531652507814996E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>40390</v>
       </c>
@@ -25377,7 +25373,7 @@
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>40421</v>
       </c>
@@ -25420,7 +25416,7 @@
         <v>1.391746098783431E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>40451</v>
       </c>
@@ -25463,7 +25459,7 @@
         <v>2.3467549167782931E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>40482</v>
       </c>
@@ -25495,10 +25491,10 @@
       <c r="K108" s="4">
         <v>2.5581021864317322E-2</v>
       </c>
-      <c r="L108" s="103">
+      <c r="L108" s="82">
         <v>3.0413159908186719E-2</v>
       </c>
-      <c r="M108" s="103">
+      <c r="M108" s="82">
         <v>2.166666666666667</v>
       </c>
       <c r="N108" s="4">
@@ -25518,7 +25514,7 @@
         <v>0.60650775281068237</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>40512</v>
       </c>
@@ -25571,7 +25567,7 @@
         <v>1.1052631578947367</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>40543</v>
       </c>
@@ -25624,7 +25620,7 @@
         <v>1.5789473684210524</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>40574</v>
       </c>
@@ -25677,7 +25673,7 @@
         <v>2.7368421052631575</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>40602</v>
       </c>
@@ -25730,7 +25726,7 @@
         <v>4.5263157894736832</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>40633</v>
       </c>
@@ -25783,7 +25779,7 @@
         <v>4.1052631578947363</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>40663</v>
       </c>
@@ -25838,7 +25834,7 @@
         <v>15.157894736842103</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>40694</v>
       </c>
@@ -25893,7 +25889,7 @@
         <v>45.999999999999986</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>40724</v>
       </c>
@@ -25948,7 +25944,7 @@
         <v>84.736842105263136</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>40755</v>
       </c>
@@ -26003,7 +25999,7 @@
         <v>71.052631578947341</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>40786</v>
       </c>
@@ -26058,7 +26054,7 @@
         <v>43.157894736842088</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>40816</v>
       </c>
@@ -26113,7 +26109,7 @@
         <v>27.052631578947352</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>40847</v>
       </c>
@@ -26168,7 +26164,7 @@
         <v>17.105263157894733</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>40877</v>
       </c>
@@ -26223,7 +26219,7 @@
         <v>15.631578947368418</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>40908</v>
       </c>
@@ -26278,7 +26274,7 @@
         <v>22.368421052631572</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>40939</v>
       </c>
@@ -26333,7 +26329,7 @@
         <v>28.842105263157887</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>40968</v>
       </c>
@@ -26388,7 +26384,7 @@
         <v>25.578947368421044</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>40999</v>
       </c>
@@ -26443,7 +26439,7 @@
         <v>25.578947368421044</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>41029</v>
       </c>
@@ -26498,7 +26494,7 @@
         <v>26.052631578947356</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>41060</v>
       </c>
@@ -26553,7 +26549,7 @@
         <v>27.263157894736825</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>41090</v>
       </c>
@@ -26608,7 +26604,7 @@
         <v>34.999999999999986</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>41121</v>
       </c>
@@ -26663,7 +26659,7 @@
         <v>49.210526315789451</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>41152</v>
       </c>
@@ -26718,7 +26714,7 @@
         <v>53.473684210526294</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>41182</v>
       </c>
@@ -26773,7 +26769,7 @@
         <v>65.210526315789451</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>41213</v>
       </c>
@@ -26828,7 +26824,7 @@
         <v>58.947368421052602</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>41243</v>
       </c>
@@ -26883,7 +26879,7 @@
         <v>66.157894736842081</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>41274</v>
       </c>
@@ -26938,7 +26934,7 @@
         <v>71.105263157894711</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>41305</v>
       </c>
@@ -26993,7 +26989,7 @@
         <v>107.42105263157892</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>41333</v>
       </c>
@@ -27048,7 +27044,7 @@
         <v>175.68421052631575</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>41364</v>
       </c>
@@ -27103,7 +27099,7 @@
         <v>476.31578947368405</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>41394</v>
       </c>
@@ -27158,7 +27154,7 @@
         <v>703.94736842105237</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>41425</v>
       </c>
@@ -27213,7 +27209,7 @@
         <v>669.47368421052602</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>41455</v>
       </c>
@@ -27268,7 +27264,7 @@
         <v>510.47368421052607</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>41486</v>
       </c>
@@ -27323,7 +27319,7 @@
         <v>511.84210526315769</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>41517</v>
       </c>
@@ -27378,7 +27374,7 @@
         <v>663.26315789473654</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>41547</v>
       </c>
@@ -27433,7 +27429,7 @@
         <v>668.89473684210509</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>41578</v>
       </c>
@@ -27488,7 +27484,7 @@
         <v>1085.9999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>41608</v>
       </c>
@@ -27543,7 +27539,7 @@
         <v>5984.2105263157882</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>41639</v>
       </c>
@@ -27598,7 +27594,7 @@
         <v>3930.9999999999991</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>41670</v>
       </c>
@@ -27654,7 +27650,7 @@
         <v>4245.7368421052624</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>41698</v>
       </c>
@@ -27710,7 +27706,7 @@
         <v>2983.7368421052629</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>41729</v>
       </c>
@@ -27766,7 +27762,7 @@
         <v>2451.3157894736842</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>41759</v>
       </c>
@@ -27822,7 +27818,7 @@
         <v>2359.105263157895</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>41790</v>
       </c>
@@ -27878,7 +27874,7 @@
         <v>3231.1578947368425</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>41820</v>
       </c>
@@ -27934,7 +27930,7 @@
         <v>3405.1052631578955</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>41851</v>
       </c>
@@ -27990,7 +27986,7 @@
         <v>3086.1052631578955</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>41882</v>
       </c>
@@ -28046,7 +28042,7 @@
         <v>2524.7368421052633</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>41912</v>
       </c>
@@ -28102,7 +28098,7 @@
         <v>2050.9473684210529</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>41943</v>
       </c>
@@ -28158,7 +28154,7 @@
         <v>1802.0000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>41973</v>
       </c>
@@ -28214,7 +28210,7 @@
         <v>1977.6842105263161</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>42004</v>
       </c>
@@ -28270,7 +28266,7 @@
         <v>1670.3157894736844</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>42035</v>
       </c>
@@ -28326,7 +28322,7 @@
         <v>1208.7894736842104</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>42063</v>
       </c>
@@ -28382,7 +28378,7 @@
         <v>1341.421052631579</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>42094</v>
       </c>
@@ -28438,7 +28434,7 @@
         <v>1284.9473684210525</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>42124</v>
       </c>
@@ -28494,7 +28490,7 @@
         <v>1245.1578947368421</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>42155</v>
       </c>
@@ -28550,7 +28546,7 @@
         <v>1219.8947368421052</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>42185</v>
       </c>
@@ -28606,7 +28602,7 @@
         <v>1373.5263157894738</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>42216</v>
       </c>
@@ -28662,7 +28658,7 @@
         <v>1498.3684210526314</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>42247</v>
       </c>
@@ -28718,7 +28714,7 @@
         <v>1212.6842105263156</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>42277</v>
       </c>
@@ -28774,7 +28770,7 @@
         <v>1247.3157894736842</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>42308</v>
       </c>
@@ -28830,7 +28826,7 @@
         <v>1701.2105263157896</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>42338</v>
       </c>
@@ -28886,7 +28882,7 @@
         <v>1983.2631578947369</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>42369</v>
       </c>
@@ -28942,7 +28938,7 @@
         <v>2274.3157894736846</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>42400</v>
       </c>
@@ -28998,7 +28994,7 @@
         <v>1985.7368421052633</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>42429</v>
       </c>
@@ -29054,7 +29050,7 @@
         <v>2283.7368421052633</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>42460</v>
       </c>
@@ -29110,7 +29106,7 @@
         <v>2193.9473684210529</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>42490</v>
       </c>
@@ -29166,7 +29162,7 @@
         <v>2395.5263157894738</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>42521</v>
       </c>
@@ -29222,7 +29218,7 @@
         <v>2746.0000000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>42551</v>
       </c>
@@ -29278,7 +29274,7 @@
         <v>3501.4210526315792</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>42582</v>
       </c>
@@ -29334,7 +29330,7 @@
         <v>3326.3157894736846</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>42613</v>
       </c>
@@ -29390,7 +29386,7 @@
         <v>3012.6842105263163</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>42643</v>
       </c>
@@ -29446,7 +29442,7 @@
         <v>3189.4210526315796</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>42674</v>
       </c>
@@ -29502,7 +29498,7 @@
         <v>3695.6315789473688</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>42704</v>
       </c>
@@ -29558,7 +29554,7 @@
         <v>3911.8947368421059</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>42735</v>
       </c>
@@ -29614,7 +29610,7 @@
         <v>5010.5789473684217</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>42766</v>
       </c>
@@ -29670,7 +29666,7 @@
         <v>5061.5263157894751</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>42794</v>
       </c>
@@ -29726,7 +29722,7 @@
         <v>6277.3684210526335</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>42825</v>
       </c>
@@ -29782,7 +29778,7 @@
         <v>5656.2631578947385</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>42855</v>
       </c>
@@ -29838,7 +29834,7 @@
         <v>7137.0000000000009</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>42886</v>
       </c>
@@ -29894,7 +29890,7 @@
         <v>12032.105263157897</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>42916</v>
       </c>
@@ -29950,7 +29946,7 @@
         <v>13171.05263157895</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>42947</v>
       </c>
@@ -30006,7 +30002,7 @@
         <v>15193.210526315794</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>42978</v>
       </c>
@@ -30062,7 +30058,7 @@
         <v>24954.684210526324</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>43008</v>
       </c>
@@ -30118,7 +30114,7 @@
         <v>21953.947368421057</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>43039</v>
       </c>
@@ -30174,7 +30170,7 @@
         <v>33565.526315789481</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>43069</v>
       </c>
@@ -30230,7 +30226,7 @@
         <v>42811.842105263167</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>43100</v>
       </c>
@@ -30286,7 +30282,7 @@
         <v>73910.842105263175</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>43131</v>
       </c>
@@ -30342,7 +30338,7 @@
         <v>52433.210526315794</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>43159</v>
       </c>
@@ -30398,7 +30394,7 @@
         <v>55463.263157894748</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>43190</v>
       </c>
@@ -30454,7 +30450,7 @@
         <v>36065.842105263167</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>43220</v>
       </c>
@@ -30510,7 +30506,7 @@
         <v>48803.684210526335</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>43251</v>
       </c>
@@ -30566,7 +30562,7 @@
         <v>39675.157894736854</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>43281</v>
       </c>
@@ -30622,7 +30618,7 @@
         <v>31050.736842105278</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>43312</v>
       </c>
@@ -30678,7 +30674,7 @@
         <v>40470.684210526335</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>43343</v>
       </c>
@@ -30734,7 +30730,7 @@
         <v>37076.842105263175</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>43373</v>
       </c>
@@ -30790,7 +30786,7 @@
         <v>34533.157894736854</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>43404</v>
       </c>
@@ -30846,7 +30842,7 @@
         <v>33170.526315789481</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>43434</v>
       </c>
@@ -30902,7 +30898,7 @@
         <v>20686.210526315794</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>43465</v>
       </c>
@@ -30958,7 +30954,7 @@
         <v>19337.789473684214</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>43496</v>
       </c>
@@ -31014,7 +31010,7 @@
         <v>17984.421052631584</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>43524</v>
       </c>
@@ -31070,7 +31066,7 @@
         <v>20013.315789473691</v>
       </c>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>43555</v>
       </c>
@@ -31126,7 +31122,7 @@
         <v>21541.947368421057</v>
       </c>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>43585</v>
       </c>
@@ -31182,7 +31178,7 @@
         <v>27567.736842105267</v>
       </c>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>43616</v>
       </c>
@@ -31238,7 +31234,7 @@
         <v>44754.631578947367</v>
       </c>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>43646</v>
       </c>
@@ -31294,7 +31290,7 @@
         <v>59963.052631578954</v>
       </c>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>43677</v>
       </c>
@@ -31350,7 +31346,7 @@
         <v>52771.631578947374</v>
       </c>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>43708</v>
       </c>
@@ -31406,7 +31402,7 @@
         <v>50664.105263157893</v>
       </c>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>43738</v>
       </c>
@@ -31462,7 +31458,7 @@
         <v>43373.157894736833</v>
       </c>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>43769</v>
       </c>
@@ -31518,7 +31514,7 @@
         <v>48365.368421052619</v>
       </c>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>43799</v>
       </c>
@@ -31574,7 +31570,7 @@
         <v>40580.736842105252</v>
       </c>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>43830</v>
       </c>
@@ -31630,7 +31626,7 @@
         <v>37675.105263157886</v>
       </c>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>43861</v>
       </c>
@@ -31701,7 +31697,7 @@
       <c r="AI219" s="5"/>
       <c r="AJ219" s="5"/>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>43890</v>
       </c>
@@ -31757,7 +31753,7 @@
         <v>45438.736842105252</v>
       </c>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>43921</v>
       </c>
@@ -31813,7 +31809,7 @@
         <v>34112.473684210512</v>
       </c>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>43951</v>
       </c>
@@ -31869,7 +31865,7 @@
         <v>46455.578947368398</v>
       </c>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>43982</v>
       </c>
@@ -31925,7 +31921,7 @@
         <v>50028.315789473651</v>
       </c>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>44012</v>
       </c>
@@ -31981,7 +31977,7 @@
         <v>48142.578947368391</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>44043</v>
       </c>
@@ -32037,7 +32033,7 @@
         <v>59713.842105263117</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>44074</v>
       </c>
@@ -32093,7 +32089,7 @@
         <v>61466.315789473651</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>44104</v>
       </c>
@@ -32149,7 +32145,7 @@
         <v>56352.368421052604</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>44135</v>
       </c>
@@ -32205,7 +32201,7 @@
         <v>72895.263157894704</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>44165</v>
       </c>
@@ -32261,7 +32257,7 @@
         <v>101992.68421052628</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>44196</v>
       </c>
@@ -32317,7 +32313,7 @@
         <v>152611.99999999991</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>44227</v>
       </c>
@@ -32373,7 +32369,7 @@
         <v>171585.57894736834</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>44255</v>
       </c>
@@ -32429,7 +32425,7 @@
         <v>238148.63157894724</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>44286</v>
       </c>
@@ -32485,7 +32481,7 @@
         <v>310316.84210526297</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>44316</v>
       </c>
@@ -32541,7 +32537,7 @@
         <v>299023.36842105247</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>44347</v>
       </c>
@@ -32597,7 +32593,7 @@
         <v>193109.94736842092</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>44377</v>
       </c>
@@ -32653,7 +32649,7 @@
         <v>182026.31578947356</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>44408</v>
       </c>
@@ -32709,7 +32705,7 @@
         <v>218632.73684210511</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>44439</v>
       </c>
@@ -32765,7 +32761,7 @@
         <v>247413.31578947348</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>44469</v>
       </c>
@@ -32821,7 +32817,7 @@
         <v>228612.36842105244</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>44500</v>
       </c>
@@ -32877,7 +32873,7 @@
         <v>320926.21052631555</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>44530</v>
       </c>
@@ -32933,7 +32929,7 @@
         <v>300729.84210526291</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>44561</v>
       </c>
@@ -32989,7 +32985,7 @@
         <v>243861.3157894735</v>
       </c>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>44592</v>
       </c>
@@ -33045,7 +33041,7 @@
         <v>202304.4210526314</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>44620</v>
       </c>
@@ -33101,7 +33097,7 @@
         <v>219236.68421052615</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>44651</v>
       </c>
@@ -33157,7 +33153,7 @@
         <v>240881.99999999983</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>44681</v>
       </c>
@@ -33213,7 +33209,7 @@
         <v>201761.57894736825</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>44712</v>
       </c>
@@ -33269,7 +33265,7 @@
         <v>167306.73684210514</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>44742</v>
       </c>
@@ -33325,7 +33321,7 @@
         <v>98585.789473684141</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>44773</v>
       </c>
@@ -33381,7 +33377,7 @@
         <v>125301.47368421043</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>44804</v>
       </c>
@@ -33437,7 +33433,7 @@
         <v>106298.26315789466</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>44834</v>
       </c>
@@ -33493,7 +33489,7 @@
         <v>102237.52631578941</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>44865</v>
       </c>
@@ -33549,7 +33545,7 @@
         <v>107398.2105263157</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>44895</v>
       </c>
@@ -33605,7 +33601,7 @@
         <v>90023.684210526233</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>44926</v>
       </c>
@@ -33661,7 +33657,7 @@
         <v>87049.999999999913</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>44957</v>
       </c>
@@ -33717,7 +33713,7 @@
         <v>120557.57894736828</v>
       </c>
     </row>
-    <row r="257" spans="13:13">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M257" s="7"/>
     </row>
   </sheetData>

--- a/source.xlsx
+++ b/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Repos\untitled\HKU_MFIN7002_Research_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E360172-9B33-463C-A3CA-23829AAA2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BBFE7A-B793-4C29-B557-ADFBF3989EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1140" windowWidth="20664" windowHeight="14616" activeTab="4" xr2:uid="{382386D0-A18B-4045-8BEA-4874332A251B}"/>
+    <workbookView xWindow="10944" yWindow="492" windowWidth="20664" windowHeight="14616" activeTab="1" xr2:uid="{382386D0-A18B-4045-8BEA-4874332A251B}"/>
   </bookViews>
   <sheets>
     <sheet name="Return Data" sheetId="2" r:id="rId1"/>
@@ -546,7 +546,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="53">
   <si>
     <t>Monthly Return Data</t>
   </si>
@@ -708,6 +708,18 @@
   </si>
   <si>
     <t>BTC absolute value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developed-Market Equities Ex US</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emerging-Market Equities</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedge Funds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -13140,8 +13152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8818C3B-286B-46D7-A6D6-5B131D1064D7}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16247,7 +16259,7 @@
   <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16305,13 +16317,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>8</v>
@@ -18707,7 +18719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9AFCB-08B3-4194-A75D-D257FBCD3E96}">
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="87" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
